--- a/lib/szkola/praca/praca.xlsx
+++ b/lib/szkola/praca/praca.xlsx
@@ -1,35 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580"/>
   </bookViews>
   <sheets>
-    <sheet name="ziomek," sheetId="1" r:id="rId1"/>
-    <sheet name="pozdro" sheetId="4" r:id="rId2"/>
-    <sheet name="gdzie" sheetId="5" r:id="rId3"/>
-    <sheet name="patrzysz" sheetId="6" r:id="rId4"/>
-    <sheet name="Całuj" sheetId="7" r:id="rId5"/>
-    <sheet name="Gołębie" sheetId="8" r:id="rId6"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -60,12 +77,7 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -144,7 +156,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,7 +190,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -355,103 +365,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>(A2+B2)/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>(A3+B3)/2*C3</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>(A4+B4)/2*C4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f>(12+41)/2*6</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>234</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>(60+234)/2*4</f>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>237</v>
+      </c>
+      <c r="B7">
+        <v>234</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>(237+234)/2*5</f>
+        <v>1177.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>A10*B10/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f>A11*B11/2</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <f>A12*B12/2</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <f>A13*B13/2</f>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <f>A14*B14/2</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <f>A17*B17</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>A18*B18</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <f>A19*B19</f>
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>123</v>
+      </c>
+      <c r="B20">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <f>A20*B20</f>
+        <v>15252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>123</v>
+      </c>
+      <c r="C21">
+        <f>A21*B21</f>
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <f>A24*B24/2</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <f>A25*B25/2</f>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <f>A26*B26/2</f>
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>342</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <f>A27*B27/2</f>
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <f>A28*B28/2</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f>A31*B31</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f>A32*B32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f>A33*B33</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <f>A34*B34</f>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f>A35*B35</f>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <f>A38*B38</f>
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <f>A39*B39</f>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>122</v>
+      </c>
+      <c r="C40">
+        <f>A40*B40</f>
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>321</v>
+      </c>
+      <c r="B41">
+        <v>311</v>
+      </c>
+      <c r="C41">
+        <f>A41*B41</f>
+        <v>99831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>311</v>
+      </c>
+      <c r="B42">
+        <v>160</v>
+      </c>
+      <c r="C42">
+        <f>A42*B42</f>
+        <v>49760</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>3 * 8 + (2.5)^3  / 15-72</f>
-        <v>-46.958333333333329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f xml:space="preserve"> SQRT(3.15) + SQRT(2.73) / 1/2 + 1/3</f>
-        <v>2.9342928503561336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/lib/szkola/praca/praca.xlsx
+++ b/lib/szkola/praca/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Igor Kowalczyk</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,11 +583,11 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <f>A18*B18</f>
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -834,6 +837,11 @@
       <c r="C42">
         <f>A42*B42</f>
         <v>49760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
